--- a/kubernetes theory.xlsx
+++ b/kubernetes theory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c65920f137b4e26e/Desktop/K8S IMAGES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{F718EE77-5939-40BE-B56E-971A963ACF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF8B3A85-B24A-4BE9-9914-7D7B7402D4ED}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{F718EE77-5939-40BE-B56E-971A963ACF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14AF0B2F-456E-43B7-B3D4-6AEB1B6A74EA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56A2B074-0067-4325-A24E-6D4FEDD8222E}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>ETCD</t>
   </si>
   <si>
-    <t>Scheduller</t>
-  </si>
-  <si>
     <t>CCM</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Container Runtime</t>
+  </si>
+  <si>
+    <t>Scheduler</t>
   </si>
 </sst>
 </file>
@@ -150,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -238,11 +238,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -260,6 +297,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,22 +426,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114302</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>93702</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:colOff>567141</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>147765</xdr:rowOff>
+      <xdr:rowOff>163006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D74752D-F634-A6E0-354A-92C4995047A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DAEEAF-A5A1-7705-9DE0-89B27DF7D990}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -417,8 +457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723902" y="771882"/>
-          <a:ext cx="5250178" cy="4100283"/>
+          <a:off x="624840" y="670560"/>
+          <a:ext cx="5428701" cy="4239706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -730,7 +770,7 @@
   <dimension ref="B2:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,7 +977,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -954,7 +994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -964,14 +1004,15 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="8"/>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -981,14 +1022,15 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="8"/>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -998,14 +1040,15 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="8"/>
-      <c r="M19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1015,11 +1058,11 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
-      <c r="M20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="M20" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1030,7 +1073,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -1041,7 +1084,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1052,7 +1095,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -1063,7 +1106,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -1074,7 +1117,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1085,7 +1128,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -1096,7 +1139,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
